--- a/xlsx/富兰克林·德拉诺·罗斯福_intext.xlsx
+++ b/xlsx/富兰克林·德拉诺·罗斯福_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1779">
   <si>
     <t>富兰克林·德拉诺·罗斯福</t>
   </si>
@@ -29,7 +29,7 @@
     <t>美国总统列表</t>
   </si>
   <si>
-    <t>政策_政策_美國_富兰克林·德拉诺·罗斯福</t>
+    <t>体育运动_体育运动_犹太人大屠杀_富兰克林·德拉诺·罗斯福</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
@@ -110,10 +110,10 @@
     <t>纽约州参议院</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>美国</t>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>美國</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
@@ -1358,10 +1358,10 @@
     <t>en-George W. Norris</t>
   </si>
   <si>
-    <t>https://en.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E8%8F%AF%E6%A0%BC%E7%BA%B3</t>
-  </si>
-  <si>
-    <t>en-羅伯特·華格纳</t>
+    <t>https://en.wikipedia.org/wiki/Robert_F._Wagner</t>
+  </si>
+  <si>
+    <t>en-Robert F. Wagner</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%A8%E6%9E%9C%C2%B7%E5%B8%83%E8%90%8A%E5%85%8B</t>
@@ -1520,12 +1520,6 @@
     <t>en-Social Security</t>
   </si>
   <si>
-    <t>https://en.wikipedia.org/wiki/Robert_F._Wagner</t>
-  </si>
-  <si>
-    <t>en-Robert F. Wagner</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/National_Labor_Relations_Act</t>
   </si>
   <si>
@@ -1880,10 +1874,10 @@
     <t>菲律賓總統</t>
   </si>
   <si>
-    <t>https://en.wikipedia.org/wiki/Manuel_L._Quuezon</t>
-  </si>
-  <si>
-    <t>en-Manuel L. Quuezon</t>
+    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%8A%AA%C2%B7%E9%AD%AF%E4%BA%A6%E6%96%AF%C2%B7%E5%A5%8E%E6%9D%BE</t>
+  </si>
+  <si>
+    <t>曼努·魯亦斯·奎松</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%81%93%E5%A4%AB%C2%B7%E5%B8%8C%E7%89%B9%E5%8B%92</t>
@@ -1892,6 +1886,12 @@
     <t>阿道夫·希特勒</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E7%BE%A9%E5%A4%A7%E5%88%A9%E5%B0%8D%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>第二次義大利對衣索比亞戰爭</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
@@ -2216,10 +2216,10 @@
     <t>紐芬蘭</t>
   </si>
   <si>
-    <t>https://en.wikipedia.org/wiki/HMS_Prince_of_Wales</t>
-  </si>
-  <si>
-    <t>en-HMS Prince of Wales</t>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E6%96%AF%E8%A6%AA%E7%8E%8B%E8%99%9F</t>
+  </si>
+  <si>
+    <t>威爾斯親王號</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%AE%AA%E7%AB%A0</t>
@@ -2270,10 +2270,10 @@
     <t>查爾斯·林德伯格</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%A4%A7%E8%87%AA%E7%94%B1</t>
-  </si>
-  <si>
-    <t>四大自由</t>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%A4%A7%E8%87%AA%E7%94%B1_(%E7%BE%85%E6%96%AF%E7%A6%8F)</t>
+  </si>
+  <si>
+    <t>四大自由 (羅斯福)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
@@ -3440,12 +3440,6 @@
     <t>古腾堡计划</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%AF%8C%E8%98%AD%E5%85%8B%E6%9E%97%C2%B7%E5%BE%B7%E6%8B%89%E8%AB%BE%C2%B7%E7%BE%85%E6%96%AF%E7%A6%8F</t>
   </si>
   <si>
@@ -3650,6 +3644,12 @@
     <t>洛里奇协定</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%A4%A7%E8%87%AA%E7%94%B1_(%E6%B2%B9%E7%95%AB)</t>
+  </si>
+  <si>
+    <t>四大自由 (油畫)</t>
+  </si>
+  <si>
     <t>https://en.wikipedia.org/wiki/Four_Freedoms_Monument</t>
   </si>
   <si>
@@ -3852,12 +3852,6 @@
   </si>
   <si>
     <t>en-1940 State of the Union Address</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%A4%A7%E8%87%AA%E7%94%B1_(%E7%BE%85%E6%96%AF%E7%A6%8F)</t>
-  </si>
-  <si>
-    <t>四大自由 (羅斯福)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/1945_State_of_the_Union_Address</t>
@@ -6166,7 +6160,7 @@
         <v>32</v>
       </c>
       <c r="G16" t="n">
-        <v>50</v>
+        <v>192</v>
       </c>
       <c r="H16" t="s">
         <v>4</v>
@@ -13358,7 +13352,7 @@
         <v>502</v>
       </c>
       <c r="G264" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H264" t="s">
         <v>4</v>
@@ -13387,7 +13381,7 @@
         <v>504</v>
       </c>
       <c r="G265" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H265" t="s">
         <v>4</v>
@@ -13416,7 +13410,7 @@
         <v>506</v>
       </c>
       <c r="G266" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H266" t="s">
         <v>4</v>
@@ -13474,7 +13468,7 @@
         <v>510</v>
       </c>
       <c r="G268" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H268" t="s">
         <v>4</v>
@@ -13503,7 +13497,7 @@
         <v>512</v>
       </c>
       <c r="G269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H269" t="s">
         <v>4</v>
@@ -13555,13 +13549,13 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>515</v>
+        <v>13</v>
       </c>
       <c r="F271" t="s">
-        <v>516</v>
+        <v>14</v>
       </c>
       <c r="G271" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H271" t="s">
         <v>4</v>
@@ -13584,13 +13578,13 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>13</v>
+        <v>515</v>
       </c>
       <c r="F272" t="s">
-        <v>14</v>
+        <v>516</v>
       </c>
       <c r="G272" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="H272" t="s">
         <v>4</v>
@@ -13619,7 +13613,7 @@
         <v>518</v>
       </c>
       <c r="G273" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H273" t="s">
         <v>4</v>
@@ -13648,7 +13642,7 @@
         <v>520</v>
       </c>
       <c r="G274" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H274" t="s">
         <v>4</v>
@@ -13677,7 +13671,7 @@
         <v>522</v>
       </c>
       <c r="G275" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H275" t="s">
         <v>4</v>
@@ -13706,7 +13700,7 @@
         <v>524</v>
       </c>
       <c r="G276" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H276" t="s">
         <v>4</v>
@@ -13735,7 +13729,7 @@
         <v>526</v>
       </c>
       <c r="G277" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H277" t="s">
         <v>4</v>
@@ -13793,7 +13787,7 @@
         <v>530</v>
       </c>
       <c r="G279" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H279" t="s">
         <v>4</v>
@@ -13822,7 +13816,7 @@
         <v>532</v>
       </c>
       <c r="G280" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H280" t="s">
         <v>4</v>
@@ -13845,13 +13839,13 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>533</v>
+        <v>89</v>
       </c>
       <c r="F281" t="s">
-        <v>534</v>
+        <v>90</v>
       </c>
       <c r="G281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H281" t="s">
         <v>4</v>
@@ -13874,13 +13868,13 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>89</v>
+        <v>533</v>
       </c>
       <c r="F282" t="s">
-        <v>90</v>
+        <v>534</v>
       </c>
       <c r="G282" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H282" t="s">
         <v>4</v>
@@ -13909,7 +13903,7 @@
         <v>536</v>
       </c>
       <c r="G283" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H283" t="s">
         <v>4</v>
@@ -13938,7 +13932,7 @@
         <v>538</v>
       </c>
       <c r="G284" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H284" t="s">
         <v>4</v>
@@ -14054,7 +14048,7 @@
         <v>546</v>
       </c>
       <c r="G288" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H288" t="s">
         <v>4</v>
@@ -14083,7 +14077,7 @@
         <v>548</v>
       </c>
       <c r="G289" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H289" t="s">
         <v>4</v>
@@ -14112,7 +14106,7 @@
         <v>550</v>
       </c>
       <c r="G290" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H290" t="s">
         <v>4</v>
@@ -14164,10 +14158,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>553</v>
+        <v>433</v>
       </c>
       <c r="F292" t="s">
-        <v>554</v>
+        <v>434</v>
       </c>
       <c r="G292" t="n">
         <v>2</v>
@@ -14193,10 +14187,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>433</v>
+        <v>553</v>
       </c>
       <c r="F293" t="s">
-        <v>434</v>
+        <v>554</v>
       </c>
       <c r="G293" t="n">
         <v>2</v>
@@ -14228,7 +14222,7 @@
         <v>556</v>
       </c>
       <c r="G294" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H294" t="s">
         <v>4</v>
@@ -14257,7 +14251,7 @@
         <v>558</v>
       </c>
       <c r="G295" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H295" t="s">
         <v>4</v>
@@ -14286,7 +14280,7 @@
         <v>560</v>
       </c>
       <c r="G296" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H296" t="s">
         <v>4</v>
@@ -14431,7 +14425,7 @@
         <v>570</v>
       </c>
       <c r="G301" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H301" t="s">
         <v>4</v>
@@ -14460,7 +14454,7 @@
         <v>572</v>
       </c>
       <c r="G302" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H302" t="s">
         <v>4</v>
@@ -14512,13 +14506,13 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>575</v>
+        <v>7</v>
       </c>
       <c r="F304" t="s">
-        <v>576</v>
+        <v>8</v>
       </c>
       <c r="G304" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H304" t="s">
         <v>4</v>
@@ -14541,13 +14535,13 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>7</v>
+        <v>575</v>
       </c>
       <c r="F305" t="s">
-        <v>8</v>
+        <v>576</v>
       </c>
       <c r="G305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H305" t="s">
         <v>4</v>
@@ -14576,7 +14570,7 @@
         <v>578</v>
       </c>
       <c r="G306" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H306" t="s">
         <v>4</v>
@@ -14605,7 +14599,7 @@
         <v>580</v>
       </c>
       <c r="G307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H307" t="s">
         <v>4</v>
@@ -14634,7 +14628,7 @@
         <v>582</v>
       </c>
       <c r="G308" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H308" t="s">
         <v>4</v>
@@ -14663,7 +14657,7 @@
         <v>584</v>
       </c>
       <c r="G309" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H309" t="s">
         <v>4</v>
@@ -14686,10 +14680,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>585</v>
+        <v>121</v>
       </c>
       <c r="F310" t="s">
-        <v>586</v>
+        <v>122</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -14715,10 +14709,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>121</v>
+        <v>585</v>
       </c>
       <c r="F311" t="s">
-        <v>122</v>
+        <v>586</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -14750,7 +14744,7 @@
         <v>588</v>
       </c>
       <c r="G312" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H312" t="s">
         <v>4</v>
@@ -14779,7 +14773,7 @@
         <v>590</v>
       </c>
       <c r="G313" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H313" t="s">
         <v>4</v>
@@ -14808,7 +14802,7 @@
         <v>592</v>
       </c>
       <c r="G314" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H314" t="s">
         <v>4</v>
@@ -14837,7 +14831,7 @@
         <v>594</v>
       </c>
       <c r="G315" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H315" t="s">
         <v>4</v>
@@ -14866,7 +14860,7 @@
         <v>596</v>
       </c>
       <c r="G316" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H316" t="s">
         <v>4</v>
@@ -14953,7 +14947,7 @@
         <v>602</v>
       </c>
       <c r="G319" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H319" t="s">
         <v>4</v>
@@ -14982,7 +14976,7 @@
         <v>604</v>
       </c>
       <c r="G320" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H320" t="s">
         <v>4</v>
@@ -15069,7 +15063,7 @@
         <v>610</v>
       </c>
       <c r="G323" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H323" t="s">
         <v>4</v>
@@ -15098,7 +15092,7 @@
         <v>612</v>
       </c>
       <c r="G324" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H324" t="s">
         <v>4</v>
@@ -15127,7 +15121,7 @@
         <v>614</v>
       </c>
       <c r="G325" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H325" t="s">
         <v>4</v>
@@ -15243,7 +15237,7 @@
         <v>622</v>
       </c>
       <c r="G329" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H329" t="s">
         <v>4</v>
@@ -15272,7 +15266,7 @@
         <v>624</v>
       </c>
       <c r="G330" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H330" t="s">
         <v>4</v>
@@ -20579,7 +20573,7 @@
         <v>958</v>
       </c>
       <c r="G513" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H513" t="s">
         <v>4</v>
@@ -23734,13 +23728,13 @@
         <v>621</v>
       </c>
       <c r="E622" t="s">
-        <v>1141</v>
+        <v>15</v>
       </c>
       <c r="F622" t="s">
-        <v>1142</v>
+        <v>16</v>
       </c>
       <c r="G622" t="n">
-        <v>188</v>
+        <v>4</v>
       </c>
       <c r="H622" t="s">
         <v>4</v>
@@ -23763,13 +23757,13 @@
         <v>622</v>
       </c>
       <c r="E623" t="s">
-        <v>15</v>
+        <v>1141</v>
       </c>
       <c r="F623" t="s">
-        <v>16</v>
+        <v>1142</v>
       </c>
       <c r="G623" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H623" t="s">
         <v>4</v>
@@ -23798,7 +23792,7 @@
         <v>1144</v>
       </c>
       <c r="G624" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H624" t="s">
         <v>4</v>
@@ -23827,7 +23821,7 @@
         <v>1146</v>
       </c>
       <c r="G625" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H625" t="s">
         <v>4</v>
@@ -23850,13 +23844,13 @@
         <v>625</v>
       </c>
       <c r="E626" t="s">
-        <v>1147</v>
+        <v>29</v>
       </c>
       <c r="F626" t="s">
-        <v>1148</v>
+        <v>30</v>
       </c>
       <c r="G626" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H626" t="s">
         <v>4</v>
@@ -23879,13 +23873,13 @@
         <v>626</v>
       </c>
       <c r="E627" t="s">
-        <v>29</v>
+        <v>1147</v>
       </c>
       <c r="F627" t="s">
-        <v>30</v>
+        <v>1148</v>
       </c>
       <c r="G627" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H627" t="s">
         <v>4</v>
@@ -23943,7 +23937,7 @@
         <v>1152</v>
       </c>
       <c r="G629" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H629" t="s">
         <v>4</v>
@@ -24030,7 +24024,7 @@
         <v>1158</v>
       </c>
       <c r="G632" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H632" t="s">
         <v>4</v>
@@ -24059,7 +24053,7 @@
         <v>1160</v>
       </c>
       <c r="G633" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H633" t="s">
         <v>4</v>
@@ -24146,7 +24140,7 @@
         <v>1166</v>
       </c>
       <c r="G636" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H636" t="s">
         <v>4</v>
@@ -24175,7 +24169,7 @@
         <v>1168</v>
       </c>
       <c r="G637" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H637" t="s">
         <v>4</v>
@@ -24262,7 +24256,7 @@
         <v>1174</v>
       </c>
       <c r="G640" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H640" t="s">
         <v>4</v>
@@ -24291,7 +24285,7 @@
         <v>1176</v>
       </c>
       <c r="G641" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H641" t="s">
         <v>4</v>
@@ -24494,7 +24488,7 @@
         <v>1190</v>
       </c>
       <c r="G648" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H648" t="s">
         <v>4</v>
@@ -24523,7 +24517,7 @@
         <v>1192</v>
       </c>
       <c r="G649" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H649" t="s">
         <v>4</v>
@@ -24981,10 +24975,10 @@
         <v>664</v>
       </c>
       <c r="E665" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="F665" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="G665" t="n">
         <v>8</v>
@@ -25213,10 +25207,10 @@
         <v>672</v>
       </c>
       <c r="E673" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F673" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G673" t="n">
         <v>1</v>
@@ -25677,10 +25671,10 @@
         <v>688</v>
       </c>
       <c r="E689" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="F689" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="G689" t="n">
         <v>1</v>
@@ -25880,10 +25874,10 @@
         <v>695</v>
       </c>
       <c r="E696" t="s">
-        <v>1279</v>
+        <v>751</v>
       </c>
       <c r="F696" t="s">
-        <v>1280</v>
+        <v>752</v>
       </c>
       <c r="G696" t="n">
         <v>56</v>
@@ -25909,10 +25903,10 @@
         <v>696</v>
       </c>
       <c r="E697" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="F697" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="G697" t="n">
         <v>1</v>
@@ -25938,10 +25932,10 @@
         <v>697</v>
       </c>
       <c r="E698" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="F698" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="G698" t="n">
         <v>1</v>
@@ -25967,10 +25961,10 @@
         <v>698</v>
       </c>
       <c r="E699" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="F699" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="G699" t="n">
         <v>1</v>
@@ -25996,10 +25990,10 @@
         <v>699</v>
       </c>
       <c r="E700" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="F700" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="G700" t="n">
         <v>1</v>
@@ -26054,10 +26048,10 @@
         <v>701</v>
       </c>
       <c r="E702" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F702" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="G702" t="n">
         <v>1</v>
@@ -26083,10 +26077,10 @@
         <v>702</v>
       </c>
       <c r="E703" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="F703" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="G703" t="n">
         <v>1</v>
@@ -26112,10 +26106,10 @@
         <v>703</v>
       </c>
       <c r="E704" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="F704" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="G704" t="n">
         <v>1</v>
@@ -26141,10 +26135,10 @@
         <v>704</v>
       </c>
       <c r="E705" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="F705" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="G705" t="n">
         <v>1</v>
@@ -26170,10 +26164,10 @@
         <v>705</v>
       </c>
       <c r="E706" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="F706" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="G706" t="n">
         <v>1</v>
@@ -26199,10 +26193,10 @@
         <v>706</v>
       </c>
       <c r="E707" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="F707" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="G707" t="n">
         <v>1</v>
@@ -26228,10 +26222,10 @@
         <v>707</v>
       </c>
       <c r="E708" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="F708" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="G708" t="n">
         <v>1</v>
@@ -26257,10 +26251,10 @@
         <v>708</v>
       </c>
       <c r="E709" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="F709" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="G709" t="n">
         <v>1</v>
@@ -26286,10 +26280,10 @@
         <v>709</v>
       </c>
       <c r="E710" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="F710" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="G710" t="n">
         <v>1</v>
@@ -26373,10 +26367,10 @@
         <v>712</v>
       </c>
       <c r="E713" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="F713" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="G713" t="n">
         <v>1</v>
@@ -26402,10 +26396,10 @@
         <v>713</v>
       </c>
       <c r="E714" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F714" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G714" t="n">
         <v>32</v>
@@ -26431,10 +26425,10 @@
         <v>714</v>
       </c>
       <c r="E715" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="F715" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="G715" t="n">
         <v>1</v>
@@ -26460,10 +26454,10 @@
         <v>715</v>
       </c>
       <c r="E716" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="F716" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="G716" t="n">
         <v>1</v>
@@ -26489,10 +26483,10 @@
         <v>716</v>
       </c>
       <c r="E717" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="F717" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="G717" t="n">
         <v>1</v>
@@ -26547,10 +26541,10 @@
         <v>718</v>
       </c>
       <c r="E719" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="F719" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="G719" t="n">
         <v>1</v>
@@ -26576,10 +26570,10 @@
         <v>719</v>
       </c>
       <c r="E720" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="F720" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="G720" t="n">
         <v>1</v>
@@ -26605,10 +26599,10 @@
         <v>720</v>
       </c>
       <c r="E721" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="F721" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="G721" t="n">
         <v>1</v>
@@ -26634,10 +26628,10 @@
         <v>721</v>
       </c>
       <c r="E722" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="F722" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="G722" t="n">
         <v>4</v>
@@ -26663,10 +26657,10 @@
         <v>722</v>
       </c>
       <c r="E723" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="F723" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="G723" t="n">
         <v>1</v>
@@ -26692,10 +26686,10 @@
         <v>723</v>
       </c>
       <c r="E724" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="F724" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="G724" t="n">
         <v>1</v>
@@ -26721,10 +26715,10 @@
         <v>724</v>
       </c>
       <c r="E725" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="F725" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="G725" t="n">
         <v>1</v>
@@ -26750,10 +26744,10 @@
         <v>725</v>
       </c>
       <c r="E726" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="F726" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="G726" t="n">
         <v>1</v>
@@ -26779,10 +26773,10 @@
         <v>726</v>
       </c>
       <c r="E727" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="F727" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="G727" t="n">
         <v>1</v>
@@ -26808,10 +26802,10 @@
         <v>727</v>
       </c>
       <c r="E728" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="F728" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="G728" t="n">
         <v>1</v>
@@ -26866,10 +26860,10 @@
         <v>729</v>
       </c>
       <c r="E730" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="F730" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="G730" t="n">
         <v>1</v>
@@ -26895,10 +26889,10 @@
         <v>730</v>
       </c>
       <c r="E731" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="F731" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="G731" t="n">
         <v>1</v>
@@ -26924,10 +26918,10 @@
         <v>731</v>
       </c>
       <c r="E732" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="F732" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="G732" t="n">
         <v>1</v>
@@ -26953,10 +26947,10 @@
         <v>732</v>
       </c>
       <c r="E733" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="F733" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="G733" t="n">
         <v>4</v>
@@ -26982,10 +26976,10 @@
         <v>733</v>
       </c>
       <c r="E734" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="F734" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="G734" t="n">
         <v>1</v>
@@ -27011,10 +27005,10 @@
         <v>734</v>
       </c>
       <c r="E735" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="F735" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="G735" t="n">
         <v>1</v>
@@ -27040,10 +27034,10 @@
         <v>735</v>
       </c>
       <c r="E736" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="F736" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G736" t="n">
         <v>1</v>
@@ -27069,10 +27063,10 @@
         <v>736</v>
       </c>
       <c r="E737" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="F737" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="G737" t="n">
         <v>1</v>
@@ -27098,10 +27092,10 @@
         <v>737</v>
       </c>
       <c r="E738" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="F738" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="G738" t="n">
         <v>1</v>
@@ -27127,10 +27121,10 @@
         <v>738</v>
       </c>
       <c r="E739" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="F739" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="G739" t="n">
         <v>1</v>
@@ -27185,10 +27179,10 @@
         <v>740</v>
       </c>
       <c r="E741" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="F741" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="G741" t="n">
         <v>1</v>
@@ -27214,10 +27208,10 @@
         <v>741</v>
       </c>
       <c r="E742" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="F742" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="G742" t="n">
         <v>1</v>
@@ -27243,10 +27237,10 @@
         <v>742</v>
       </c>
       <c r="E743" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="F743" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="G743" t="n">
         <v>1</v>
@@ -27272,10 +27266,10 @@
         <v>743</v>
       </c>
       <c r="E744" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="F744" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="G744" t="n">
         <v>1</v>
@@ -27301,10 +27295,10 @@
         <v>744</v>
       </c>
       <c r="E745" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="F745" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="G745" t="n">
         <v>1</v>
@@ -27330,10 +27324,10 @@
         <v>745</v>
       </c>
       <c r="E746" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="F746" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="G746" t="n">
         <v>1</v>
@@ -27359,10 +27353,10 @@
         <v>746</v>
       </c>
       <c r="E747" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="F747" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="G747" t="n">
         <v>1</v>
@@ -27446,10 +27440,10 @@
         <v>749</v>
       </c>
       <c r="E750" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="F750" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="G750" t="n">
         <v>1</v>
@@ -27475,10 +27469,10 @@
         <v>750</v>
       </c>
       <c r="E751" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="F751" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="G751" t="n">
         <v>1</v>
@@ -27504,10 +27498,10 @@
         <v>751</v>
       </c>
       <c r="E752" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="F752" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="G752" t="n">
         <v>1</v>
@@ -27533,10 +27527,10 @@
         <v>752</v>
       </c>
       <c r="E753" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="F753" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="G753" t="n">
         <v>1</v>
@@ -27591,10 +27585,10 @@
         <v>754</v>
       </c>
       <c r="E755" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="F755" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="G755" t="n">
         <v>1</v>
@@ -27620,10 +27614,10 @@
         <v>755</v>
       </c>
       <c r="E756" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="F756" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="G756" t="n">
         <v>1</v>
@@ -27649,10 +27643,10 @@
         <v>756</v>
       </c>
       <c r="E757" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="F757" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="G757" t="n">
         <v>1</v>
@@ -27678,10 +27672,10 @@
         <v>757</v>
       </c>
       <c r="E758" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="F758" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="G758" t="n">
         <v>1</v>
@@ -27707,10 +27701,10 @@
         <v>758</v>
       </c>
       <c r="E759" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="F759" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="G759" t="n">
         <v>1</v>
@@ -27736,10 +27730,10 @@
         <v>759</v>
       </c>
       <c r="E760" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="F760" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="G760" t="n">
         <v>1</v>
@@ -27765,10 +27759,10 @@
         <v>760</v>
       </c>
       <c r="E761" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="F761" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="G761" t="n">
         <v>1</v>
@@ -27794,10 +27788,10 @@
         <v>761</v>
       </c>
       <c r="E762" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="F762" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="G762" t="n">
         <v>1</v>
@@ -27823,10 +27817,10 @@
         <v>762</v>
       </c>
       <c r="E763" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="F763" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="G763" t="n">
         <v>1</v>
@@ -27852,10 +27846,10 @@
         <v>763</v>
       </c>
       <c r="E764" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="F764" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="G764" t="n">
         <v>1</v>
@@ -27881,10 +27875,10 @@
         <v>764</v>
       </c>
       <c r="E765" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="F765" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="G765" t="n">
         <v>1</v>
@@ -27910,10 +27904,10 @@
         <v>765</v>
       </c>
       <c r="E766" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="F766" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="G766" t="n">
         <v>1</v>
@@ -27939,10 +27933,10 @@
         <v>766</v>
       </c>
       <c r="E767" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="F767" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="G767" t="n">
         <v>1</v>
@@ -27968,10 +27962,10 @@
         <v>767</v>
       </c>
       <c r="E768" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="F768" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="G768" t="n">
         <v>1</v>
@@ -27997,10 +27991,10 @@
         <v>768</v>
       </c>
       <c r="E769" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="F769" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="G769" t="n">
         <v>1</v>
@@ -28026,10 +28020,10 @@
         <v>769</v>
       </c>
       <c r="E770" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="F770" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="G770" t="n">
         <v>1</v>
@@ -28055,10 +28049,10 @@
         <v>770</v>
       </c>
       <c r="E771" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="F771" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="G771" t="n">
         <v>1</v>
@@ -28084,10 +28078,10 @@
         <v>771</v>
       </c>
       <c r="E772" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="F772" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="G772" t="n">
         <v>1</v>
@@ -28113,10 +28107,10 @@
         <v>772</v>
       </c>
       <c r="E773" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="F773" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="G773" t="n">
         <v>1</v>
@@ -28142,10 +28136,10 @@
         <v>773</v>
       </c>
       <c r="E774" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="F774" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="G774" t="n">
         <v>1</v>
@@ -28171,10 +28165,10 @@
         <v>774</v>
       </c>
       <c r="E775" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="F775" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="G775" t="n">
         <v>1</v>
@@ -28200,10 +28194,10 @@
         <v>775</v>
       </c>
       <c r="E776" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="F776" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="G776" t="n">
         <v>1</v>
@@ -28258,10 +28252,10 @@
         <v>777</v>
       </c>
       <c r="E778" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="F778" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="G778" t="n">
         <v>1</v>
@@ -28374,10 +28368,10 @@
         <v>781</v>
       </c>
       <c r="E782" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="F782" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="G782" t="n">
         <v>3</v>
@@ -28403,10 +28397,10 @@
         <v>782</v>
       </c>
       <c r="E783" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="F783" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="G783" t="n">
         <v>1</v>
@@ -28432,10 +28426,10 @@
         <v>783</v>
       </c>
       <c r="E784" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="F784" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="G784" t="n">
         <v>2</v>
@@ -28461,10 +28455,10 @@
         <v>784</v>
       </c>
       <c r="E785" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="F785" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="G785" t="n">
         <v>3</v>
@@ -28490,10 +28484,10 @@
         <v>785</v>
       </c>
       <c r="E786" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="F786" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="G786" t="n">
         <v>1</v>
@@ -28519,10 +28513,10 @@
         <v>786</v>
       </c>
       <c r="E787" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="F787" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="G787" t="n">
         <v>4</v>
@@ -28548,10 +28542,10 @@
         <v>787</v>
       </c>
       <c r="E788" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="F788" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="G788" t="n">
         <v>1</v>
@@ -28577,10 +28571,10 @@
         <v>788</v>
       </c>
       <c r="E789" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="F789" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="G789" t="n">
         <v>3</v>
@@ -28606,10 +28600,10 @@
         <v>789</v>
       </c>
       <c r="E790" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="F790" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="G790" t="n">
         <v>2</v>
@@ -28635,10 +28629,10 @@
         <v>790</v>
       </c>
       <c r="E791" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="F791" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="G791" t="n">
         <v>4</v>
@@ -28664,10 +28658,10 @@
         <v>791</v>
       </c>
       <c r="E792" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="F792" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="G792" t="n">
         <v>1</v>
@@ -28693,10 +28687,10 @@
         <v>792</v>
       </c>
       <c r="E793" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F793" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="G793" t="n">
         <v>5</v>
@@ -28722,10 +28716,10 @@
         <v>793</v>
       </c>
       <c r="E794" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="F794" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="G794" t="n">
         <v>1</v>
@@ -28751,10 +28745,10 @@
         <v>794</v>
       </c>
       <c r="E795" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="F795" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="G795" t="n">
         <v>1</v>
@@ -28780,10 +28774,10 @@
         <v>795</v>
       </c>
       <c r="E796" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="F796" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="G796" t="n">
         <v>1</v>
@@ -28838,10 +28832,10 @@
         <v>797</v>
       </c>
       <c r="E798" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="F798" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="G798" t="n">
         <v>1</v>
@@ -28867,10 +28861,10 @@
         <v>798</v>
       </c>
       <c r="E799" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="F799" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="G799" t="n">
         <v>1</v>
@@ -28925,10 +28919,10 @@
         <v>800</v>
       </c>
       <c r="E801" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="F801" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="G801" t="n">
         <v>1</v>
@@ -28983,10 +28977,10 @@
         <v>802</v>
       </c>
       <c r="E803" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="F803" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="G803" t="n">
         <v>1</v>
@@ -29070,10 +29064,10 @@
         <v>805</v>
       </c>
       <c r="E806" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="F806" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="G806" t="n">
         <v>2</v>
@@ -29099,10 +29093,10 @@
         <v>806</v>
       </c>
       <c r="E807" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="F807" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="G807" t="n">
         <v>4</v>
@@ -29128,10 +29122,10 @@
         <v>807</v>
       </c>
       <c r="E808" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="F808" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="G808" t="n">
         <v>1</v>
@@ -29157,10 +29151,10 @@
         <v>808</v>
       </c>
       <c r="E809" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="F809" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="G809" t="n">
         <v>1</v>
@@ -29186,10 +29180,10 @@
         <v>809</v>
       </c>
       <c r="E810" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="F810" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="G810" t="n">
         <v>1</v>
@@ -29215,10 +29209,10 @@
         <v>810</v>
       </c>
       <c r="E811" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="F811" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="G811" t="n">
         <v>2</v>
@@ -29244,10 +29238,10 @@
         <v>811</v>
       </c>
       <c r="E812" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="F812" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="G812" t="n">
         <v>7</v>
@@ -29273,10 +29267,10 @@
         <v>812</v>
       </c>
       <c r="E813" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="F813" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="G813" t="n">
         <v>2</v>
@@ -29302,10 +29296,10 @@
         <v>813</v>
       </c>
       <c r="E814" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="F814" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="G814" t="n">
         <v>4</v>
@@ -29331,10 +29325,10 @@
         <v>814</v>
       </c>
       <c r="E815" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="F815" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="G815" t="n">
         <v>1</v>
@@ -29360,10 +29354,10 @@
         <v>815</v>
       </c>
       <c r="E816" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="F816" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="G816" t="n">
         <v>2</v>
@@ -29389,10 +29383,10 @@
         <v>816</v>
       </c>
       <c r="E817" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="F817" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="G817" t="n">
         <v>1</v>
@@ -29418,10 +29412,10 @@
         <v>817</v>
       </c>
       <c r="E818" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="F818" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="G818" t="n">
         <v>1</v>
@@ -29447,10 +29441,10 @@
         <v>818</v>
       </c>
       <c r="E819" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="F819" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="G819" t="n">
         <v>3</v>
@@ -29476,10 +29470,10 @@
         <v>819</v>
       </c>
       <c r="E820" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="F820" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="G820" t="n">
         <v>41</v>
@@ -29505,10 +29499,10 @@
         <v>820</v>
       </c>
       <c r="E821" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="F821" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="G821" t="n">
         <v>2</v>
@@ -29534,10 +29528,10 @@
         <v>821</v>
       </c>
       <c r="E822" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="F822" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="G822" t="n">
         <v>2</v>
@@ -29563,10 +29557,10 @@
         <v>822</v>
       </c>
       <c r="E823" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="F823" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="G823" t="n">
         <v>3</v>
@@ -29592,10 +29586,10 @@
         <v>823</v>
       </c>
       <c r="E824" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="F824" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="G824" t="n">
         <v>1</v>
@@ -29621,10 +29615,10 @@
         <v>824</v>
       </c>
       <c r="E825" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="F825" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="G825" t="n">
         <v>1</v>
@@ -29650,10 +29644,10 @@
         <v>825</v>
       </c>
       <c r="E826" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="F826" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="G826" t="n">
         <v>1</v>
@@ -29679,10 +29673,10 @@
         <v>826</v>
       </c>
       <c r="E827" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="F827" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="G827" t="n">
         <v>2</v>
@@ -29708,10 +29702,10 @@
         <v>827</v>
       </c>
       <c r="E828" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="F828" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="G828" t="n">
         <v>1</v>
@@ -29737,10 +29731,10 @@
         <v>828</v>
       </c>
       <c r="E829" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="F829" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="G829" t="n">
         <v>1</v>
@@ -29795,10 +29789,10 @@
         <v>830</v>
       </c>
       <c r="E831" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="F831" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="G831" t="n">
         <v>4</v>
@@ -29853,10 +29847,10 @@
         <v>832</v>
       </c>
       <c r="E833" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="F833" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="G833" t="n">
         <v>3</v>
@@ -29911,10 +29905,10 @@
         <v>834</v>
       </c>
       <c r="E835" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="F835" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="G835" t="n">
         <v>1</v>
@@ -30056,10 +30050,10 @@
         <v>839</v>
       </c>
       <c r="E840" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="F840" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="G840" t="n">
         <v>1</v>
@@ -30085,10 +30079,10 @@
         <v>840</v>
       </c>
       <c r="E841" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="F841" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="G841" t="n">
         <v>4</v>
@@ -30172,10 +30166,10 @@
         <v>843</v>
       </c>
       <c r="E844" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="F844" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="G844" t="n">
         <v>2</v>
@@ -30201,10 +30195,10 @@
         <v>844</v>
       </c>
       <c r="E845" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="F845" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="G845" t="n">
         <v>1</v>
@@ -30230,10 +30224,10 @@
         <v>845</v>
       </c>
       <c r="E846" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="F846" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="G846" t="n">
         <v>1</v>
@@ -30259,10 +30253,10 @@
         <v>846</v>
       </c>
       <c r="E847" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="F847" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="G847" t="n">
         <v>5</v>
@@ -30288,10 +30282,10 @@
         <v>847</v>
       </c>
       <c r="E848" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="F848" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="G848" t="n">
         <v>2</v>
@@ -30317,10 +30311,10 @@
         <v>848</v>
       </c>
       <c r="E849" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="F849" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="G849" t="n">
         <v>1</v>
@@ -30346,10 +30340,10 @@
         <v>849</v>
       </c>
       <c r="E850" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="F850" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="G850" t="n">
         <v>1</v>
@@ -30375,10 +30369,10 @@
         <v>850</v>
       </c>
       <c r="E851" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="F851" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="G851" t="n">
         <v>4</v>
@@ -30404,10 +30398,10 @@
         <v>851</v>
       </c>
       <c r="E852" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="F852" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="G852" t="n">
         <v>1</v>
@@ -30433,10 +30427,10 @@
         <v>852</v>
       </c>
       <c r="E853" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="F853" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="G853" t="n">
         <v>3</v>
@@ -30462,10 +30456,10 @@
         <v>853</v>
       </c>
       <c r="E854" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="F854" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="G854" t="n">
         <v>1</v>
@@ -30491,10 +30485,10 @@
         <v>854</v>
       </c>
       <c r="E855" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="F855" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="G855" t="n">
         <v>4</v>
@@ -30520,10 +30514,10 @@
         <v>855</v>
       </c>
       <c r="E856" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="F856" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="G856" t="n">
         <v>1</v>
@@ -30549,10 +30543,10 @@
         <v>856</v>
       </c>
       <c r="E857" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="F857" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="G857" t="n">
         <v>1</v>
@@ -30578,10 +30572,10 @@
         <v>857</v>
       </c>
       <c r="E858" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="F858" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="G858" t="n">
         <v>1</v>
@@ -30607,10 +30601,10 @@
         <v>858</v>
       </c>
       <c r="E859" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="F859" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="G859" t="n">
         <v>1</v>
@@ -30636,10 +30630,10 @@
         <v>859</v>
       </c>
       <c r="E860" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="F860" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="G860" t="n">
         <v>1</v>
@@ -30665,10 +30659,10 @@
         <v>860</v>
       </c>
       <c r="E861" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="F861" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="G861" t="n">
         <v>1</v>
@@ -30694,10 +30688,10 @@
         <v>861</v>
       </c>
       <c r="E862" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="F862" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="G862" t="n">
         <v>1</v>
@@ -30723,10 +30717,10 @@
         <v>862</v>
       </c>
       <c r="E863" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="F863" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="G863" t="n">
         <v>1</v>
@@ -30752,10 +30746,10 @@
         <v>863</v>
       </c>
       <c r="E864" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="F864" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="G864" t="n">
         <v>1</v>
@@ -30781,10 +30775,10 @@
         <v>864</v>
       </c>
       <c r="E865" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="F865" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="G865" t="n">
         <v>5</v>
@@ -30810,10 +30804,10 @@
         <v>865</v>
       </c>
       <c r="E866" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="F866" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="G866" t="n">
         <v>1</v>
@@ -30839,10 +30833,10 @@
         <v>866</v>
       </c>
       <c r="E867" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="F867" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="G867" t="n">
         <v>1</v>
@@ -30868,10 +30862,10 @@
         <v>867</v>
       </c>
       <c r="E868" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="F868" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="G868" t="n">
         <v>1</v>
@@ -30897,10 +30891,10 @@
         <v>868</v>
       </c>
       <c r="E869" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="F869" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="G869" t="n">
         <v>1</v>
@@ -30926,10 +30920,10 @@
         <v>869</v>
       </c>
       <c r="E870" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="F870" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="G870" t="n">
         <v>1</v>
@@ -30984,10 +30978,10 @@
         <v>871</v>
       </c>
       <c r="E872" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="F872" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="G872" t="n">
         <v>1</v>
@@ -31013,10 +31007,10 @@
         <v>872</v>
       </c>
       <c r="E873" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="F873" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="G873" t="n">
         <v>1</v>
@@ -31042,10 +31036,10 @@
         <v>873</v>
       </c>
       <c r="E874" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="F874" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="G874" t="n">
         <v>1</v>
@@ -31071,10 +31065,10 @@
         <v>874</v>
       </c>
       <c r="E875" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="F875" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="G875" t="n">
         <v>1</v>
@@ -31100,10 +31094,10 @@
         <v>875</v>
       </c>
       <c r="E876" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="F876" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="G876" t="n">
         <v>1</v>
@@ -31129,10 +31123,10 @@
         <v>876</v>
       </c>
       <c r="E877" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="F877" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="G877" t="n">
         <v>1</v>
@@ -31158,10 +31152,10 @@
         <v>877</v>
       </c>
       <c r="E878" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="F878" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="G878" t="n">
         <v>1</v>
@@ -31187,10 +31181,10 @@
         <v>878</v>
       </c>
       <c r="E879" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="F879" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="G879" t="n">
         <v>1</v>
@@ -31216,10 +31210,10 @@
         <v>879</v>
       </c>
       <c r="E880" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="F880" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="G880" t="n">
         <v>1</v>
@@ -31245,10 +31239,10 @@
         <v>880</v>
       </c>
       <c r="E881" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="F881" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="G881" t="n">
         <v>1</v>
@@ -31274,10 +31268,10 @@
         <v>881</v>
       </c>
       <c r="E882" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="F882" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G882" t="n">
         <v>1</v>
@@ -31303,10 +31297,10 @@
         <v>882</v>
       </c>
       <c r="E883" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="F883" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="G883" t="n">
         <v>1</v>
@@ -31332,10 +31326,10 @@
         <v>883</v>
       </c>
       <c r="E884" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="F884" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="G884" t="n">
         <v>1</v>
@@ -31361,10 +31355,10 @@
         <v>884</v>
       </c>
       <c r="E885" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="F885" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="G885" t="n">
         <v>1</v>
@@ -31390,10 +31384,10 @@
         <v>885</v>
       </c>
       <c r="E886" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="F886" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G886" t="n">
         <v>1</v>
@@ -31419,10 +31413,10 @@
         <v>886</v>
       </c>
       <c r="E887" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="F887" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="G887" t="n">
         <v>1</v>
@@ -31448,10 +31442,10 @@
         <v>887</v>
       </c>
       <c r="E888" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="F888" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="G888" t="n">
         <v>1</v>
@@ -31506,10 +31500,10 @@
         <v>889</v>
       </c>
       <c r="E890" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="F890" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="G890" t="n">
         <v>1</v>
@@ -31564,10 +31558,10 @@
         <v>891</v>
       </c>
       <c r="E892" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="F892" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="G892" t="n">
         <v>1</v>
@@ -31593,10 +31587,10 @@
         <v>892</v>
       </c>
       <c r="E893" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="F893" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G893" t="n">
         <v>1</v>
@@ -31622,10 +31616,10 @@
         <v>893</v>
       </c>
       <c r="E894" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="F894" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="G894" t="n">
         <v>1</v>
@@ -31651,10 +31645,10 @@
         <v>894</v>
       </c>
       <c r="E895" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="F895" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="G895" t="n">
         <v>1</v>
@@ -31680,10 +31674,10 @@
         <v>895</v>
       </c>
       <c r="E896" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="F896" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="G896" t="n">
         <v>1</v>
@@ -31709,10 +31703,10 @@
         <v>896</v>
       </c>
       <c r="E897" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="F897" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="G897" t="n">
         <v>2</v>
@@ -31767,10 +31761,10 @@
         <v>898</v>
       </c>
       <c r="E899" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="F899" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="G899" t="n">
         <v>1</v>
@@ -31796,10 +31790,10 @@
         <v>899</v>
       </c>
       <c r="E900" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="F900" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="G900" t="n">
         <v>1</v>
@@ -31825,10 +31819,10 @@
         <v>900</v>
       </c>
       <c r="E901" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="F901" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="G901" t="n">
         <v>1</v>
@@ -31854,10 +31848,10 @@
         <v>901</v>
       </c>
       <c r="E902" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="F902" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="G902" t="n">
         <v>1</v>
@@ -31883,10 +31877,10 @@
         <v>902</v>
       </c>
       <c r="E903" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="F903" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="G903" t="n">
         <v>1</v>
@@ -31912,10 +31906,10 @@
         <v>903</v>
       </c>
       <c r="E904" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="F904" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="G904" t="n">
         <v>1</v>
@@ -31941,10 +31935,10 @@
         <v>904</v>
       </c>
       <c r="E905" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="F905" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="G905" t="n">
         <v>1</v>
@@ -31970,10 +31964,10 @@
         <v>905</v>
       </c>
       <c r="E906" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="F906" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="G906" t="n">
         <v>1</v>
@@ -31999,10 +31993,10 @@
         <v>906</v>
       </c>
       <c r="E907" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="F907" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="G907" t="n">
         <v>1</v>
@@ -32028,10 +32022,10 @@
         <v>907</v>
       </c>
       <c r="E908" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="F908" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="G908" t="n">
         <v>1</v>
@@ -32057,10 +32051,10 @@
         <v>908</v>
       </c>
       <c r="E909" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="F909" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="G909" t="n">
         <v>1</v>
@@ -32086,10 +32080,10 @@
         <v>909</v>
       </c>
       <c r="E910" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="F910" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="G910" t="n">
         <v>1</v>
@@ -32115,10 +32109,10 @@
         <v>910</v>
       </c>
       <c r="E911" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="F911" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="G911" t="n">
         <v>1</v>
@@ -32144,10 +32138,10 @@
         <v>911</v>
       </c>
       <c r="E912" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="F912" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="G912" t="n">
         <v>1</v>
@@ -32173,10 +32167,10 @@
         <v>912</v>
       </c>
       <c r="E913" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="F913" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="G913" t="n">
         <v>1</v>
@@ -32202,10 +32196,10 @@
         <v>913</v>
       </c>
       <c r="E914" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="F914" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="G914" t="n">
         <v>1</v>
@@ -32231,10 +32225,10 @@
         <v>914</v>
       </c>
       <c r="E915" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="F915" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="G915" t="n">
         <v>1</v>
@@ -32260,10 +32254,10 @@
         <v>915</v>
       </c>
       <c r="E916" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="F916" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="G916" t="n">
         <v>1</v>
@@ -32289,10 +32283,10 @@
         <v>916</v>
       </c>
       <c r="E917" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="F917" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="G917" t="n">
         <v>1</v>
@@ -32318,10 +32312,10 @@
         <v>917</v>
       </c>
       <c r="E918" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="F918" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="G918" t="n">
         <v>1</v>
@@ -32347,10 +32341,10 @@
         <v>918</v>
       </c>
       <c r="E919" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="F919" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="G919" t="n">
         <v>1</v>
@@ -32376,10 +32370,10 @@
         <v>919</v>
       </c>
       <c r="E920" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="F920" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="G920" t="n">
         <v>1</v>
@@ -32405,10 +32399,10 @@
         <v>920</v>
       </c>
       <c r="E921" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="F921" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="G921" t="n">
         <v>1</v>
@@ -32434,10 +32428,10 @@
         <v>921</v>
       </c>
       <c r="E922" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="F922" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="G922" t="n">
         <v>1</v>
@@ -32463,10 +32457,10 @@
         <v>922</v>
       </c>
       <c r="E923" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="F923" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="G923" t="n">
         <v>1</v>
@@ -32492,10 +32486,10 @@
         <v>923</v>
       </c>
       <c r="E924" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="F924" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="G924" t="n">
         <v>1</v>
@@ -32521,10 +32515,10 @@
         <v>924</v>
       </c>
       <c r="E925" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="F925" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="G925" t="n">
         <v>1</v>
@@ -32550,10 +32544,10 @@
         <v>925</v>
       </c>
       <c r="E926" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="F926" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="G926" t="n">
         <v>1</v>
@@ -32579,10 +32573,10 @@
         <v>926</v>
       </c>
       <c r="E927" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="F927" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="G927" t="n">
         <v>1</v>
@@ -32608,10 +32602,10 @@
         <v>927</v>
       </c>
       <c r="E928" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="F928" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="G928" t="n">
         <v>1</v>
@@ -32637,10 +32631,10 @@
         <v>928</v>
       </c>
       <c r="E929" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="F929" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="G929" t="n">
         <v>1</v>
@@ -32666,10 +32660,10 @@
         <v>929</v>
       </c>
       <c r="E930" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="F930" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="G930" t="n">
         <v>1</v>
@@ -32695,10 +32689,10 @@
         <v>930</v>
       </c>
       <c r="E931" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="F931" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="G931" t="n">
         <v>1</v>
@@ -32724,10 +32718,10 @@
         <v>931</v>
       </c>
       <c r="E932" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="F932" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="G932" t="n">
         <v>1</v>
@@ -32753,10 +32747,10 @@
         <v>932</v>
       </c>
       <c r="E933" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="F933" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="G933" t="n">
         <v>1</v>
@@ -32782,10 +32776,10 @@
         <v>933</v>
       </c>
       <c r="E934" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="F934" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="G934" t="n">
         <v>1</v>
@@ -32811,10 +32805,10 @@
         <v>934</v>
       </c>
       <c r="E935" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="F935" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="G935" t="n">
         <v>1</v>
@@ -32840,10 +32834,10 @@
         <v>935</v>
       </c>
       <c r="E936" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="F936" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="G936" t="n">
         <v>1</v>
@@ -32869,10 +32863,10 @@
         <v>936</v>
       </c>
       <c r="E937" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="F937" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="G937" t="n">
         <v>1</v>
@@ -32898,10 +32892,10 @@
         <v>937</v>
       </c>
       <c r="E938" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="F938" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="G938" t="n">
         <v>2</v>
@@ -32927,10 +32921,10 @@
         <v>938</v>
       </c>
       <c r="E939" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="F939" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="G939" t="n">
         <v>1</v>
@@ -32956,10 +32950,10 @@
         <v>939</v>
       </c>
       <c r="E940" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="F940" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="G940" t="n">
         <v>1</v>
@@ -32985,10 +32979,10 @@
         <v>940</v>
       </c>
       <c r="E941" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="F941" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="G941" t="n">
         <v>1</v>
@@ -33014,10 +33008,10 @@
         <v>941</v>
       </c>
       <c r="E942" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="F942" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="G942" t="n">
         <v>1</v>
@@ -33043,10 +33037,10 @@
         <v>942</v>
       </c>
       <c r="E943" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="F943" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="G943" t="n">
         <v>1</v>
@@ -33072,10 +33066,10 @@
         <v>943</v>
       </c>
       <c r="E944" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="F944" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="G944" t="n">
         <v>2</v>
@@ -33101,10 +33095,10 @@
         <v>944</v>
       </c>
       <c r="E945" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="F945" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="G945" t="n">
         <v>1</v>
@@ -33130,10 +33124,10 @@
         <v>945</v>
       </c>
       <c r="E946" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="F946" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="G946" t="n">
         <v>1</v>
@@ -33159,10 +33153,10 @@
         <v>946</v>
       </c>
       <c r="E947" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="F947" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="G947" t="n">
         <v>1</v>
@@ -33188,10 +33182,10 @@
         <v>947</v>
       </c>
       <c r="E948" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="F948" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="G948" t="n">
         <v>1</v>
@@ -33217,10 +33211,10 @@
         <v>948</v>
       </c>
       <c r="E949" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="F949" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="G949" t="n">
         <v>1</v>
@@ -33246,10 +33240,10 @@
         <v>949</v>
       </c>
       <c r="E950" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="F950" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="G950" t="n">
         <v>1</v>
@@ -33275,10 +33269,10 @@
         <v>950</v>
       </c>
       <c r="E951" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="F951" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="G951" t="n">
         <v>1</v>
@@ -33304,10 +33298,10 @@
         <v>951</v>
       </c>
       <c r="E952" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="F952" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="G952" t="n">
         <v>1</v>
@@ -33333,10 +33327,10 @@
         <v>952</v>
       </c>
       <c r="E953" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="F953" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="G953" t="n">
         <v>1</v>
@@ -33362,10 +33356,10 @@
         <v>953</v>
       </c>
       <c r="E954" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="F954" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="G954" t="n">
         <v>1</v>
@@ -33391,10 +33385,10 @@
         <v>954</v>
       </c>
       <c r="E955" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="F955" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="G955" t="n">
         <v>1</v>
@@ -33420,10 +33414,10 @@
         <v>955</v>
       </c>
       <c r="E956" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="F956" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="G956" t="n">
         <v>1</v>
@@ -33449,10 +33443,10 @@
         <v>956</v>
       </c>
       <c r="E957" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="F957" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="G957" t="n">
         <v>2</v>
@@ -33478,10 +33472,10 @@
         <v>957</v>
       </c>
       <c r="E958" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="F958" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="G958" t="n">
         <v>1</v>
@@ -33507,10 +33501,10 @@
         <v>958</v>
       </c>
       <c r="E959" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="F959" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="G959" t="n">
         <v>1</v>
@@ -33536,10 +33530,10 @@
         <v>959</v>
       </c>
       <c r="E960" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="F960" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="G960" t="n">
         <v>1</v>
@@ -33565,10 +33559,10 @@
         <v>960</v>
       </c>
       <c r="E961" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="F961" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="G961" t="n">
         <v>1</v>
@@ -33594,10 +33588,10 @@
         <v>961</v>
       </c>
       <c r="E962" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="F962" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="G962" t="n">
         <v>1</v>
@@ -33623,10 +33617,10 @@
         <v>962</v>
       </c>
       <c r="E963" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="F963" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="G963" t="n">
         <v>1</v>
@@ -33652,10 +33646,10 @@
         <v>963</v>
       </c>
       <c r="E964" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="F964" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="G964" t="n">
         <v>1</v>
@@ -33681,10 +33675,10 @@
         <v>964</v>
       </c>
       <c r="E965" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="F965" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="G965" t="n">
         <v>6</v>
@@ -33710,10 +33704,10 @@
         <v>965</v>
       </c>
       <c r="E966" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="F966" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="G966" t="n">
         <v>1</v>
@@ -33739,10 +33733,10 @@
         <v>966</v>
       </c>
       <c r="E967" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="F967" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="G967" t="n">
         <v>1</v>
@@ -33768,10 +33762,10 @@
         <v>967</v>
       </c>
       <c r="E968" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="F968" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="G968" t="n">
         <v>1</v>
@@ -33797,10 +33791,10 @@
         <v>968</v>
       </c>
       <c r="E969" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="F969" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="G969" t="n">
         <v>1</v>
@@ -33826,10 +33820,10 @@
         <v>969</v>
       </c>
       <c r="E970" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="F970" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="G970" t="n">
         <v>1</v>
@@ -33855,10 +33849,10 @@
         <v>970</v>
       </c>
       <c r="E971" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="F971" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="G971" t="n">
         <v>1</v>
@@ -33884,10 +33878,10 @@
         <v>971</v>
       </c>
       <c r="E972" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="F972" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="G972" t="n">
         <v>1</v>
@@ -33913,10 +33907,10 @@
         <v>972</v>
       </c>
       <c r="E973" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="F973" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="G973" t="n">
         <v>1</v>
@@ -33942,10 +33936,10 @@
         <v>973</v>
       </c>
       <c r="E974" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="F974" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="G974" t="n">
         <v>5</v>
@@ -33971,10 +33965,10 @@
         <v>974</v>
       </c>
       <c r="E975" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="F975" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="G975" t="n">
         <v>1</v>
@@ -34000,10 +33994,10 @@
         <v>975</v>
       </c>
       <c r="E976" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="F976" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="G976" t="n">
         <v>1</v>
@@ -34029,10 +34023,10 @@
         <v>976</v>
       </c>
       <c r="E977" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="F977" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="G977" t="n">
         <v>1</v>
@@ -34058,10 +34052,10 @@
         <v>977</v>
       </c>
       <c r="E978" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="F978" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="G978" t="n">
         <v>1</v>
@@ -34087,10 +34081,10 @@
         <v>978</v>
       </c>
       <c r="E979" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="F979" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="G979" t="n">
         <v>1</v>
@@ -34116,10 +34110,10 @@
         <v>979</v>
       </c>
       <c r="E980" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="F980" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="G980" t="n">
         <v>1</v>
@@ -34145,10 +34139,10 @@
         <v>980</v>
       </c>
       <c r="E981" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="F981" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="G981" t="n">
         <v>1</v>
@@ -34174,10 +34168,10 @@
         <v>981</v>
       </c>
       <c r="E982" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="F982" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="G982" t="n">
         <v>1</v>
@@ -34203,10 +34197,10 @@
         <v>982</v>
       </c>
       <c r="E983" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="F983" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="G983" t="n">
         <v>1</v>
@@ -34232,10 +34226,10 @@
         <v>983</v>
       </c>
       <c r="E984" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="F984" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="G984" t="n">
         <v>1</v>
@@ -34261,10 +34255,10 @@
         <v>984</v>
       </c>
       <c r="E985" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="F985" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="G985" t="n">
         <v>1</v>
@@ -34290,10 +34284,10 @@
         <v>985</v>
       </c>
       <c r="E986" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="F986" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="G986" t="n">
         <v>1</v>
@@ -34319,10 +34313,10 @@
         <v>986</v>
       </c>
       <c r="E987" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="F987" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="G987" t="n">
         <v>1</v>
@@ -34348,10 +34342,10 @@
         <v>987</v>
       </c>
       <c r="E988" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="F988" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="G988" t="n">
         <v>1</v>
@@ -34377,10 +34371,10 @@
         <v>988</v>
       </c>
       <c r="E989" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="F989" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="G989" t="n">
         <v>3</v>
